--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G642"/>
+  <dimension ref="A1:G566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14485,10 +14485,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14518,10 +14516,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14551,10 +14547,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14584,10 +14578,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14617,10 +14609,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14646,10 +14636,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14675,10 +14663,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14704,10 +14690,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14737,10 +14721,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14770,10 +14752,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14799,10 +14779,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14824,10 +14802,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14849,10 +14825,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14874,10 +14848,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14899,10 +14871,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14924,10 +14894,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -14949,10 +14917,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -14974,83 +14940,89 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>09:45 AM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
       <c r="F555" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
@@ -15062,61 +15034,53 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G558" t="inlineStr">
@@ -15128,28 +15092,28 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
@@ -15161,24 +15125,28 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -15190,24 +15158,28 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="G561" t="inlineStr">
@@ -15219,24 +15191,28 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
       <c r="D562" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E562" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
@@ -15248,24 +15224,28 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E563" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
@@ -15277,63 +15257,39 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D564" t="inlineStr"/>
+      <c r="E564" t="inlineStr"/>
+      <c r="F564" t="inlineStr"/>
       <c r="G564" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="D565" t="inlineStr"/>
+      <c r="E565" t="inlineStr"/>
+      <c r="F565" t="inlineStr"/>
       <c r="G565" t="inlineStr">
         <is>
           <t>3</t>
@@ -15343,1911 +15299,15 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 22 2025</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr"/>
       <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D566" t="inlineStr"/>
       <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr"/>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>Fed Harker Speech</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr"/>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr"/>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr"/>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>09:35 AM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr"/>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr"/>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr"/>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr"/>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr"/>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G630" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr"/>
-      <c r="E640" t="inlineStr"/>
-      <c r="F640" t="inlineStr"/>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr"/>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14485,10 +14485,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14518,10 +14516,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14551,10 +14547,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14584,10 +14578,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14617,10 +14609,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14646,10 +14636,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14675,10 +14663,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14704,10 +14690,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14737,10 +14721,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14770,10 +14752,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14799,10 +14779,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14824,10 +14802,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14849,10 +14825,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14874,10 +14848,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14899,10 +14871,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14924,10 +14894,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -14949,10 +14917,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -14974,213 +14940,179 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-0.184M</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.135M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.159M</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
           <t>3</t>
@@ -15190,26 +15122,22 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
           <t>3</t>
@@ -15219,26 +15147,18 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
           <t>3</t>
@@ -15248,57 +15168,37 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -15310,124 +15210,116 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15439,23 +15331,23 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -15472,23 +15364,23 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -15500,22 +15392,30 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G571" t="inlineStr">
         <is>
           <t>3</t>
@@ -15525,22 +15425,30 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G572" t="inlineStr">
         <is>
           <t>3</t>
@@ -15550,38 +15458,66 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalFEB</t>
+        </is>
+      </c>
       <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -15590,14 +15526,14 @@
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
+          <t>Saturday February 22 2025</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -15607,1673 +15543,6 @@
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
     </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr"/>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>09:35 AM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14489,10 +14489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14526,10 +14524,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14563,10 +14559,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14600,10 +14594,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14637,10 +14629,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14670,10 +14660,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14703,10 +14691,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14736,10 +14722,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14773,10 +14757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14810,10 +14792,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14839,10 +14819,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14864,10 +14842,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14889,10 +14865,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14914,10 +14888,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14939,10 +14911,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14964,10 +14934,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -14989,10 +14957,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -15014,213 +14980,179 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-0.184M</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.135M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.159M</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
           <t>3</t>
@@ -15230,26 +15162,22 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
           <t>3</t>
@@ -15259,26 +15187,18 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
           <t>3</t>
@@ -15288,57 +15208,37 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -15350,124 +15250,116 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15479,23 +15371,23 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -15512,23 +15404,23 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -15540,22 +15432,30 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G571" t="inlineStr">
         <is>
           <t>3</t>
@@ -15565,22 +15465,30 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G572" t="inlineStr">
         <is>
           <t>3</t>
@@ -15590,38 +15498,66 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalFEB</t>
+        </is>
+      </c>
       <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -15630,14 +15566,14 @@
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
+          <t>Saturday February 22 2025</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -15647,1689 +15583,6 @@
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
     </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>09:35 AM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr"/>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr"/>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14489,10 +14489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14526,10 +14524,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14563,10 +14559,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14600,10 +14594,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14637,10 +14629,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14670,10 +14660,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14703,10 +14691,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14736,10 +14722,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14773,10 +14757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14810,10 +14792,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14843,10 +14823,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14872,10 +14850,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14901,10 +14877,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14930,10 +14904,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14959,10 +14931,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14988,10 +14958,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -15017,10 +14985,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -15042,213 +15008,179 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-0.184M</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.135M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.159M</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
           <t>3</t>
@@ -15258,26 +15190,22 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
           <t>3</t>
@@ -15287,26 +15215,18 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
           <t>3</t>
@@ -15316,57 +15236,37 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -15378,124 +15278,116 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15507,23 +15399,23 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -15540,23 +15432,23 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -15568,22 +15460,30 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G571" t="inlineStr">
         <is>
           <t>3</t>
@@ -15593,22 +15493,30 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G572" t="inlineStr">
         <is>
           <t>3</t>
@@ -15618,38 +15526,66 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalFEB</t>
+        </is>
+      </c>
       <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -15658,14 +15594,14 @@
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
+          <t>Saturday February 22 2025</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -15675,1701 +15611,6 @@
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
     </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>09:35 AM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14489,10 +14489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14526,10 +14524,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14563,10 +14559,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14600,10 +14594,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14637,10 +14629,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14670,10 +14660,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14703,10 +14691,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14736,10 +14722,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14773,10 +14757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14810,10 +14792,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14843,10 +14823,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14872,10 +14850,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14901,10 +14877,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14930,10 +14904,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14959,10 +14931,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14988,10 +14958,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -15017,10 +14985,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -15042,213 +15008,179 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-0.184M</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.872M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>-0.009M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.135M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.159M</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.082M</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
           <t>3</t>
@@ -15258,26 +15190,22 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
       <c r="D561" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.055%</t>
         </is>
       </c>
       <c r="E561" t="inlineStr"/>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
           <t>3</t>
@@ -15287,26 +15215,22 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
       <c r="D562" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
           <t>3</t>
@@ -15316,57 +15240,37 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.7</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -15378,124 +15282,116 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr"/>
       <c r="F567" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E568" t="inlineStr"/>
       <c r="F568" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15507,23 +15403,23 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
@@ -15540,23 +15436,23 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -15568,22 +15464,30 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>67.3</t>
+        </is>
+      </c>
       <c r="G571" t="inlineStr">
         <is>
           <t>3</t>
@@ -15593,22 +15497,30 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
       <c r="D572" t="inlineStr">
         <is>
-          <t>586</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>68.7</t>
+        </is>
+      </c>
       <c r="G572" t="inlineStr">
         <is>
           <t>3</t>
@@ -15618,38 +15530,66 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalFEB</t>
+        </is>
+      </c>
       <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
+        </is>
+      </c>
       <c r="C574" t="inlineStr"/>
       <c r="D574" t="inlineStr"/>
       <c r="E574" t="inlineStr"/>
       <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
       <c r="C575" t="inlineStr"/>
@@ -15658,14 +15598,14 @@
       <c r="F575" t="inlineStr"/>
       <c r="G575" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Tuesday February 18 2025</t>
+          <t>Saturday February 22 2025</t>
         </is>
       </c>
       <c r="B576" t="inlineStr"/>
@@ -15675,1701 +15615,6 @@
       <c r="F576" t="inlineStr"/>
       <c r="G576" t="inlineStr"/>
     </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>09:35 AM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr"/>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14489,10 +14489,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G536" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -14526,10 +14524,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G537" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -14563,10 +14559,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G538" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -14600,10 +14594,8 @@
           <t>1875.0K</t>
         </is>
       </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -14637,10 +14629,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -14670,10 +14660,8 @@
           <t>216.0K</t>
         </is>
       </c>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -14703,10 +14691,8 @@
           <t>147.2</t>
         </is>
       </c>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -14736,10 +14722,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -14773,10 +14757,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -14810,10 +14792,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -14843,10 +14823,8 @@
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -14872,10 +14850,8 @@
       </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -14901,10 +14877,8 @@
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -14930,10 +14904,8 @@
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -14959,10 +14931,8 @@
       </c>
       <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -14988,10 +14958,8 @@
       </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -15017,10 +14985,8 @@
       </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -15046,213 +15012,179 @@
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
+        </is>
+      </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>-0.009M</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+          <t>0.135M</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
       <c r="G555" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.18M</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>0.159M</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.082M</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr"/>
+      <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>30-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>2.055%</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr"/>
+      <c r="F559" t="inlineStr"/>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/19</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
           <t>3</t>
@@ -15262,115 +15194,95 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
+          <t>Friday February 21 2025</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr"/>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
       <c r="D562" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr">
         <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>52.9</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="G564" t="inlineStr">
@@ -15382,119 +15294,119 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Existing Home SalesJAN</t>
         </is>
       </c>
       <c r="C565" t="inlineStr"/>
       <c r="D565" t="inlineStr">
         <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+          <t>4.24M</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr"/>
       <c r="F565" t="inlineStr">
         <is>
-          <t>77.4%</t>
+          <t>4.16M</t>
         </is>
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Industrial Production YoYJAN</t>
+          <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C566" t="inlineStr"/>
       <c r="D566" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E566" t="inlineStr"/>
       <c r="F566" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMJAN</t>
+          <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
       <c r="C567" t="inlineStr"/>
       <c r="D567" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>67.8</t>
         </is>
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G568" t="inlineStr">
@@ -15511,28 +15423,28 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Business Inventories MoMDEC</t>
+          <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>67.3</t>
         </is>
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -15544,23 +15456,23 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
+          <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
       <c r="C570" t="inlineStr"/>
       <c r="D570" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>68.7</t>
         </is>
       </c>
       <c r="G570" t="inlineStr">
@@ -15572,22 +15484,30 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
+          <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
       <c r="C571" t="inlineStr"/>
       <c r="D571" t="inlineStr">
         <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="G571" t="inlineStr">
         <is>
           <t>3</t>
@@ -15602,15 +15522,11 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
+          <t>Baker Hughes Oil Rig CountFEB/21</t>
         </is>
       </c>
       <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr">
-        <is>
-          <t>586</t>
-        </is>
-      </c>
+      <c r="D572" t="inlineStr"/>
       <c r="E572" t="inlineStr"/>
       <c r="F572" t="inlineStr"/>
       <c r="G572" t="inlineStr">
@@ -15622,20 +15538,28 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/21</t>
+        </is>
+      </c>
       <c r="C573" t="inlineStr"/>
       <c r="D573" t="inlineStr"/>
       <c r="E573" t="inlineStr"/>
       <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Monday February 17 2025</t>
+          <t>Saturday February 22 2025</t>
         </is>
       </c>
       <c r="B574" t="inlineStr"/>
@@ -15645,1739 +15569,6 @@
       <c r="F574" t="inlineStr"/>
       <c r="G574" t="inlineStr"/>
     </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>Fed Harker Speech</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>Tuesday February 18 2025</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr"/>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-12.6</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexFEB</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>4.025%</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>4.185%</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>$79B</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentDEC</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>$-15.8B</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsDEC</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>Wednesday February 19 2025</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr"/>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/14</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>6.95%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/14</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>230.0</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>640.6</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/14</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>153.1</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Building Permits PrelJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>1.47M</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>Housing StartsJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>1.499M</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>1.35M</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>15.8%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>-9.0%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/15</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>5.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>4.230%</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
-        <is>
-          <t>4.900%</t>
-        </is>
-      </c>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>9.043M</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>Thursday February 20 2025</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr"/>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>1850K</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr">
-        <is>
-          <t>1879.0K</t>
-        </is>
-      </c>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/15</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>216K</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>219.0K</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsFEB</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>46.3</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexFEB</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>11.9</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>42.9</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidFEB</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>31.9</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>09:35 AM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr"/>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>-100Bcf</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr"/>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr"/>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>4.07M</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>-3.035M</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr"/>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>6.09%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/20</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>6.87%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>-0.184M</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>0.872M</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>-0.009M</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>0.135M</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>0.18M</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr"/>
-      <c r="F625" t="inlineStr"/>
-      <c r="G625" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr"/>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>0.159M</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr"/>
-      <c r="F626" t="inlineStr"/>
-      <c r="G626" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/14</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr"/>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>0.082M</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr"/>
-      <c r="F627" t="inlineStr"/>
-      <c r="G627" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>30-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>2.055%</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr"/>
-      <c r="F628" t="inlineStr"/>
-      <c r="G628" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr"/>
-      <c r="F629" t="inlineStr"/>
-      <c r="G629" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr"/>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr"/>
-      <c r="E630" t="inlineStr"/>
-      <c r="F630" t="inlineStr"/>
-      <c r="G630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr"/>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr"/>
-      <c r="F631" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G631" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr"/>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr"/>
-      <c r="F632" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="G632" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr"/>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr"/>
-      <c r="F633" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G633" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>Existing Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr"/>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>4.24M</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr"/>
-      <c r="F634" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
-      <c r="G634" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr"/>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr"/>
-      <c r="F635" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="G635" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr"/>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="F636" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
-      <c r="G636" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr"/>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F637" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G637" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr"/>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="F638" t="inlineStr">
-        <is>
-          <t>67.3</t>
-        </is>
-      </c>
-      <c r="G638" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalFEB</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr"/>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="F639" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
-      <c r="G639" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr"/>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F640" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="G640" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr"/>
-      <c r="D641" t="inlineStr"/>
-      <c r="E641" t="inlineStr"/>
-      <c r="F641" t="inlineStr"/>
-      <c r="G641" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr"/>
-      <c r="D642" t="inlineStr"/>
-      <c r="E642" t="inlineStr"/>
-      <c r="F642" t="inlineStr"/>
-      <c r="G642" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>Saturday February 22 2025</t>
-        </is>
-      </c>
-      <c r="B643" t="inlineStr"/>
-      <c r="C643" t="inlineStr"/>
-      <c r="D643" t="inlineStr"/>
-      <c r="E643" t="inlineStr"/>
-      <c r="F643" t="inlineStr"/>
-      <c r="G643" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
